--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Rhbdl2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H2">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J2">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7105696666666667</v>
+        <v>2.214002666666667</v>
       </c>
       <c r="N2">
-        <v>2.131709</v>
+        <v>6.642008000000001</v>
       </c>
       <c r="O2">
-        <v>0.9156951470123301</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="P2">
-        <v>0.9156951470123301</v>
+        <v>0.9692171064132561</v>
       </c>
       <c r="Q2">
-        <v>0.3560441954504445</v>
+        <v>0.4763994998017778</v>
       </c>
       <c r="R2">
-        <v>3.204397759054</v>
+        <v>4.287595498216001</v>
       </c>
       <c r="S2">
-        <v>0.551214468499118</v>
+        <v>0.1736755191970195</v>
       </c>
       <c r="T2">
-        <v>0.551214468499118</v>
+        <v>0.1736755191970195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5010686666666667</v>
+        <v>0.2151756666666667</v>
       </c>
       <c r="H3">
-        <v>1.503206</v>
+        <v>0.645527</v>
       </c>
       <c r="I3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="J3">
-        <v>0.6019628588156051</v>
+        <v>0.1791915537270423</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,84 +623,84 @@
         <v>0.196259</v>
       </c>
       <c r="O3">
-        <v>0.08430485298766993</v>
+        <v>0.02863856533860833</v>
       </c>
       <c r="P3">
-        <v>0.08430485298766993</v>
+        <v>0.02863856533860832</v>
       </c>
       <c r="Q3">
-        <v>0.03277974515044445</v>
+        <v>0.01407672038811111</v>
       </c>
       <c r="R3">
-        <v>0.295017706354</v>
+        <v>0.126690483493</v>
       </c>
       <c r="S3">
-        <v>0.0507483903164871</v>
+        <v>0.005131789019538645</v>
       </c>
       <c r="T3">
-        <v>0.0507483903164871</v>
+        <v>0.005131789019538644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2151756666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.645527</v>
+      </c>
+      <c r="I4">
+        <v>0.1791915537270423</v>
+      </c>
+      <c r="J4">
+        <v>0.1791915537270423</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.3313226666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.9939680000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="J4">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.7105696666666667</v>
+        <v>0.004898333333333334</v>
       </c>
       <c r="N4">
-        <v>2.131709</v>
+        <v>0.014695</v>
       </c>
       <c r="O4">
-        <v>0.9156951470123301</v>
+        <v>0.002144328248135624</v>
       </c>
       <c r="P4">
-        <v>0.9156951470123301</v>
+        <v>0.002144328248135624</v>
       </c>
       <c r="Q4">
-        <v>0.2354278368124445</v>
+        <v>0.001054002140555556</v>
       </c>
       <c r="R4">
-        <v>2.118850531312</v>
+        <v>0.009486019264999999</v>
       </c>
       <c r="S4">
-        <v>0.364480678513212</v>
+        <v>0.0003842455104842091</v>
       </c>
       <c r="T4">
-        <v>0.364480678513212</v>
+        <v>0.0003842455104842091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.503206</v>
+      </c>
+      <c r="I5">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J5">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.214002666666667</v>
+      </c>
+      <c r="N5">
+        <v>6.642008000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.9692171064132561</v>
+      </c>
+      <c r="P5">
+        <v>0.9692171064132561</v>
+      </c>
+      <c r="Q5">
+        <v>1.109367364183111</v>
+      </c>
+      <c r="R5">
+        <v>9.984306277648001</v>
+      </c>
+      <c r="S5">
+        <v>0.4044293770982079</v>
+      </c>
+      <c r="T5">
+        <v>0.4044293770982079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.503206</v>
+      </c>
+      <c r="I6">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J6">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.06541966666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.196259</v>
+      </c>
+      <c r="O6">
+        <v>0.02863856533860833</v>
+      </c>
+      <c r="P6">
+        <v>0.02863856533860832</v>
+      </c>
+      <c r="Q6">
+        <v>0.03277974515044445</v>
+      </c>
+      <c r="R6">
+        <v>0.295017706354</v>
+      </c>
+      <c r="S6">
+        <v>0.01195013693448083</v>
+      </c>
+      <c r="T6">
+        <v>0.01195013693448083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.5010686666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.503206</v>
+      </c>
+      <c r="I7">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="J7">
+        <v>0.4172742870736815</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.3313226666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.9939680000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="J5">
-        <v>0.3980371411843948</v>
-      </c>
-      <c r="K5">
+      <c r="M7">
+        <v>0.004898333333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.014695</v>
+      </c>
+      <c r="O7">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="P7">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="Q7">
+        <v>0.002454401352222222</v>
+      </c>
+      <c r="R7">
+        <v>0.02208961217</v>
+      </c>
+      <c r="S7">
+        <v>0.0008947730409927487</v>
+      </c>
+      <c r="T7">
+        <v>0.0008947730409927487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.453708</v>
+      </c>
+      <c r="I8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J8">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="M8">
+        <v>2.214002666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.642008000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.9692171064132561</v>
+      </c>
+      <c r="P8">
+        <v>0.9692171064132561</v>
+      </c>
+      <c r="Q8">
+        <v>1.072837796184889</v>
+      </c>
+      <c r="R8">
+        <v>9.655540165664</v>
+      </c>
+      <c r="S8">
+        <v>0.3911122101180288</v>
+      </c>
+      <c r="T8">
+        <v>0.3911122101180288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.453708</v>
+      </c>
+      <c r="I9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J9">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
+      <c r="M9">
         <v>0.06541966666666667</v>
       </c>
-      <c r="N5">
+      <c r="N9">
         <v>0.196259</v>
       </c>
-      <c r="O5">
-        <v>0.08430485298766993</v>
-      </c>
-      <c r="P5">
-        <v>0.08430485298766993</v>
-      </c>
-      <c r="Q5">
-        <v>0.02167501841244445</v>
-      </c>
-      <c r="R5">
-        <v>0.195075165712</v>
-      </c>
-      <c r="S5">
-        <v>0.03355646267118283</v>
-      </c>
-      <c r="T5">
-        <v>0.03355646267118283</v>
+      <c r="O9">
+        <v>0.02863856533860833</v>
+      </c>
+      <c r="P9">
+        <v>0.02863856533860832</v>
+      </c>
+      <c r="Q9">
+        <v>0.03170036426355555</v>
+      </c>
+      <c r="R9">
+        <v>0.285303278372</v>
+      </c>
+      <c r="S9">
+        <v>0.01155663938458885</v>
+      </c>
+      <c r="T9">
+        <v>0.01155663938458885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4845693333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.453708</v>
+      </c>
+      <c r="I10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="J10">
+        <v>0.4035341591992763</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.004898333333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.014695</v>
+      </c>
+      <c r="O10">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="P10">
+        <v>0.002144328248135624</v>
+      </c>
+      <c r="Q10">
+        <v>0.002373582117777778</v>
+      </c>
+      <c r="R10">
+        <v>0.02136223906</v>
+      </c>
+      <c r="S10">
+        <v>0.000865309696658666</v>
+      </c>
+      <c r="T10">
+        <v>0.000865309696658666</v>
       </c>
     </row>
   </sheetData>
